--- a/output.xlsx
+++ b/output.xlsx
@@ -507,16 +507,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4736841855955691</v>
+        <v>0.3749999765625014</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05671641774114503</v>
+        <v>0.04776119388728002</v>
       </c>
       <c r="F2" t="n">
         <v>561.999438000562</v>
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
         <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3137254871203384</v>
+        <v>0.263157891966759</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1023069206596721</v>
+        <v>0.09528585747714557</v>
       </c>
       <c r="F3" t="n">
         <v>1618.998381001619</v>
@@ -599,16 +599,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
         <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2432432399561724</v>
+        <v>0.2112676026582028</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09035409024376791</v>
+        <v>0.08669108658523676</v>
       </c>
       <c r="F4" t="n">
         <v>1270.998729001271</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
         <v>79</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.263999997888</v>
+        <v>-0.3057851214397924</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1528117357545089</v>
+        <v>0.1479217602103646</v>
       </c>
       <c r="F5" t="n">
         <v>1256.998743001257</v>
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3999999900000002</v>
+        <v>0.3513513418553691</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07117437709755449</v>
+        <v>0.06583629881523791</v>
       </c>
       <c r="F6" t="n">
         <v>889.99911000089</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>0.51999999584</v>
+        <v>0.5041322272385766</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09645061720952884</v>
+        <v>0.09336419745882392</v>
       </c>
       <c r="F7" t="n">
         <v>2040.997959002041</v>
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>48</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2467532435486592</v>
+        <v>-0.2631578912742383</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1107913667470628</v>
+        <v>0.1093525178282698</v>
       </c>
       <c r="F8" t="n">
         <v>1130.998869001131</v>
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4799999904000002</v>
+        <v>0.446808501131734</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07621951207893367</v>
+        <v>0.07164634135419765</v>
       </c>
       <c r="F9" t="n">
         <v>976.9990230009771</v>
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>54</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03846153809171598</v>
+        <v>-0.1134020606865767</v>
       </c>
       <c r="E10" t="n">
-        <v>0.132992327195662</v>
+        <v>0.1240409205574924</v>
       </c>
       <c r="F10" t="n">
         <v>1141.998858001142</v>
@@ -921,16 +921,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02857142836734694</v>
+        <v>-0.0510948901379935</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1478352691152743</v>
+        <v>0.1446673704913755</v>
       </c>
       <c r="F11" t="n">
         <v>1789.99821000179</v>
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C12" t="n">
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5106382924400181</v>
+        <v>0.4772727218491736</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09456740433142112</v>
+        <v>0.08853118703367084</v>
       </c>
       <c r="F12" t="n">
         <v>1598.998401001599</v>
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C13" t="n">
         <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>0.533333328888889</v>
+        <v>0.4954954910315721</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1050788090148171</v>
+        <v>0.09719789833870586</v>
       </c>
       <c r="F13" t="n">
         <v>1869.99813000187</v>
@@ -1059,16 +1059,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
         <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4687499926757814</v>
+        <v>0.4333333261111112</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1330561327795091</v>
+        <v>0.1247401244807898</v>
       </c>
       <c r="F14" t="n">
         <v>817.9991820008181</v>
@@ -1105,16 +1105,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
         <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.08771929670667901</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07979407969138472</v>
+        <v>0.07335907326466014</v>
       </c>
       <c r="F15" t="n">
         <v>1285.998714001286</v>
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
         <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2249999971875001</v>
+        <v>0.1142857126530613</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08898776408343964</v>
+        <v>0.07786429357300968</v>
       </c>
       <c r="F16" t="n">
         <v>1430.998569001431</v>
@@ -1197,16 +1197,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
         <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2249999971875001</v>
+        <v>0.1142857126530613</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08898776408343964</v>
+        <v>0.07786429357300968</v>
       </c>
       <c r="F17" t="n">
         <v>1430.998569001431</v>
@@ -1243,16 +1243,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5428571351020409</v>
+        <v>0.4920634842529606</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08695652163110991</v>
+        <v>0.07826086946799891</v>
       </c>
       <c r="F18" t="n">
         <v>1303.998696001304</v>
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
         <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5483870879292405</v>
+        <v>0.4509803833141102</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0791826308056416</v>
+        <v>0.06513409953367293</v>
       </c>
       <c r="F19" t="n">
         <v>1262.998737001263</v>
@@ -1335,16 +1335,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7647058733564015</v>
+        <v>0.7260273873146933</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07826887653934725</v>
+        <v>0.06721915279261588</v>
       </c>
       <c r="F20" t="n">
         <v>1897.998102001898</v>
@@ -1381,16 +1381,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5789473379501401</v>
+        <v>0.5294117335640156</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04691358013107758</v>
+        <v>0.04197530853833257</v>
       </c>
       <c r="F21" t="n">
         <v>726.999273000727</v>
@@ -1427,16 +1427,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>51</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1860465094645755</v>
+        <v>-0.2911392368210223</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1134564642302685</v>
+        <v>0.1042216357464095</v>
       </c>
       <c r="F22" t="n">
         <v>1223.998776001224</v>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" t="n">
         <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1999999942857145</v>
+        <v>0.09677419042663901</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09749303594013083</v>
+        <v>0.08635097468983015</v>
       </c>
       <c r="F23" t="n">
         <v>617.9993820006181</v>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
         <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4328358144352863</v>
+        <v>0.2692307640532545</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07306434016023518</v>
+        <v>0.05670665206466014</v>
       </c>
       <c r="F24" t="n">
         <v>1585.998414001586</v>
@@ -1565,16 +1565,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6315789307479229</v>
+        <v>0.5999999828571434</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07916666650173611</v>
+        <v>0.07291666651475695</v>
       </c>
       <c r="F25" t="n">
         <v>767.9992320007681</v>
@@ -1611,16 +1611,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
         <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3478260793950853</v>
+        <v>0.2499999937500002</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06191117084534162</v>
+        <v>0.05383580073507967</v>
       </c>
       <c r="F26" t="n">
         <v>1231.998768001232</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
         <v>18</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3207547109291564</v>
+        <v>0.2173912996219283</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07647907636871706</v>
+        <v>0.06637806628228274</v>
       </c>
       <c r="F27" t="n">
         <v>1087.998912001088</v>
@@ -1703,16 +1703,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C28" t="n">
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2105263130193906</v>
+        <v>-0.01694915225509911</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08878504662525111</v>
+        <v>0.06892523356433967</v>
       </c>
       <c r="F28" t="n">
         <v>1533.998466001534</v>
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C29" t="n">
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2207792179119582</v>
+        <v>0.1428571408163266</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09859154916953707</v>
+        <v>0.08962868106321552</v>
       </c>
       <c r="F29" t="n">
         <v>1307.998692001308</v>
@@ -1795,16 +1795,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C30" t="n">
         <v>38</v>
       </c>
       <c r="D30" t="n">
-        <v>0.382113818031595</v>
+        <v>0.3027522908004377</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09579439244875826</v>
+        <v>0.08489096566597276</v>
       </c>
       <c r="F30" t="n">
         <v>1986.998013001987</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C31" t="n">
         <v>41</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3050847431772479</v>
+        <v>0.2264150922036312</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1305309733069348</v>
+        <v>0.1172566370384329</v>
       </c>
       <c r="F31" t="n">
         <v>1613.998386001614</v>
@@ -1887,16 +1887,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C32" t="n">
         <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>0.327731089682932</v>
+        <v>0.2727272702479339</v>
       </c>
       <c r="E32" t="n">
-        <v>0.104477611848571</v>
+        <v>0.09657594372556984</v>
       </c>
       <c r="F32" t="n">
         <v>1899.9981000019</v>
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C33" t="n">
         <v>31</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4700854660676456</v>
+        <v>0.3799999962</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1144814088899399</v>
+        <v>0.09784735802558966</v>
       </c>
       <c r="F33" t="n">
         <v>1800.998199001801</v>
@@ -1979,16 +1979,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4174757241021774</v>
+        <v>0.3913043435727789</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09270927084364601</v>
+        <v>0.08280828075354789</v>
       </c>
       <c r="F34" t="n">
         <v>1905.998094001906</v>
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C35" t="n">
         <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3777777735802469</v>
+        <v>0.28205127843524</v>
       </c>
       <c r="E35" t="n">
-        <v>0.110837438287146</v>
+        <v>0.09605911318219321</v>
       </c>
       <c r="F35" t="n">
         <v>1439.99856000144</v>
@@ -2071,16 +2071,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C36" t="n">
         <v>16</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3725490123029606</v>
+        <v>0.3333333263888891</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09156193879432327</v>
+        <v>0.0861759423946572</v>
       </c>
       <c r="F36" t="n">
         <v>941.9990580009421</v>
@@ -2117,16 +2117,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09090908264462885</v>
+        <v>0.1111110987654335</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07096774147762748</v>
+        <v>0.05806451575442248</v>
       </c>
       <c r="F37" t="n">
         <v>218.999781000219</v>
@@ -2163,16 +2163,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C38" t="n">
         <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4848484775022958</v>
+        <v>0.4237288063774779</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1219963029168275</v>
+        <v>0.1090573010923155</v>
       </c>
       <c r="F38" t="n">
         <v>910.9990890009111</v>
@@ -2209,16 +2209,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C39" t="n">
         <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3129770968475031</v>
+        <v>0.2307692287968442</v>
       </c>
       <c r="E39" t="n">
-        <v>0.09754281452156156</v>
+        <v>0.08711839159559315</v>
       </c>
       <c r="F39" t="n">
         <v>2360.997639002361</v>
@@ -2255,16 +2255,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C40" t="n">
         <v>68</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0381679386399394</v>
+        <v>-0.152542371588624</v>
       </c>
       <c r="E40" t="n">
-        <v>0.105901374207032</v>
+        <v>0.09539207752999831</v>
       </c>
       <c r="F40" t="n">
         <v>2048.997951002049</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C41" t="n">
         <v>26</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3333333290598291</v>
+        <v>0.223880593673424</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09408926406020596</v>
+        <v>0.08082026528248461</v>
       </c>
       <c r="F41" t="n">
         <v>1387.998612001388</v>
@@ -2347,16 +2347,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C42" t="n">
         <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1851851828989484</v>
+        <v>0.0434782602394455</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09111361069616017</v>
+        <v>0.07761529800043274</v>
       </c>
       <c r="F42" t="n">
         <v>1418.998581001419</v>
@@ -2393,16 +2393,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C43" t="n">
         <v>28</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4563106751814497</v>
+        <v>0.3978494580876403</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1051020407090796</v>
+        <v>0.09489795908683882</v>
       </c>
       <c r="F43" t="n">
         <v>1855.998144001856</v>
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C44" t="n">
         <v>26</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5185185137174212</v>
+        <v>0.4693877503123699</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1043478259861374</v>
+        <v>0.09468599024668019</v>
       </c>
       <c r="F44" t="n">
         <v>1743.998256001744</v>
@@ -2485,16 +2485,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7894736634349037</v>
+        <v>0.7714285493877557</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08407079627417965</v>
+        <v>0.07743362814727073</v>
       </c>
       <c r="F45" t="n">
         <v>712.999287000713</v>
@@ -2531,16 +2531,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C46" t="n">
         <v>43</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4379084938698791</v>
+        <v>0.3281249974365235</v>
       </c>
       <c r="E46" t="n">
-        <v>0.141013824754826</v>
+        <v>0.1179723501216845</v>
       </c>
       <c r="F46" t="n">
         <v>2010.997989002011</v>
@@ -2577,16 +2577,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7837837626004389</v>
+        <v>0.7241379060642101</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06502636192438249</v>
+        <v>0.05096660799478628</v>
       </c>
       <c r="F47" t="n">
         <v>957.9990420009581</v>
@@ -2623,16 +2623,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C48" t="n">
         <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3749999882812504</v>
+        <v>0.3103448168846615</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05714285704081633</v>
+        <v>0.0517857141932398</v>
       </c>
       <c r="F48" t="n">
         <v>910.9990890009111</v>
@@ -2669,16 +2669,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06666666222222252</v>
+        <v>-0.166666652777779</v>
       </c>
       <c r="E49" t="n">
-        <v>0.05859374977111816</v>
+        <v>0.04687499981689453</v>
       </c>
       <c r="F49" t="n">
         <v>387.999612000388</v>
@@ -2715,16 +2715,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09090908264462885</v>
+        <v>0.1111110987654335</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07096774147762748</v>
+        <v>0.05806451575442248</v>
       </c>
       <c r="F50" t="n">
         <v>218.999781000219</v>
@@ -2761,16 +2761,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C51" t="n">
         <v>73</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2807017519236689</v>
+        <v>-0.4313725447904653</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1241830064006721</v>
+        <v>0.111111110990075</v>
       </c>
       <c r="F51" t="n">
         <v>1580.998419001581</v>
@@ -2807,16 +2807,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C52" t="n">
         <v>18</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1999999955555557</v>
+        <v>0.09999999750000006</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08152173898275047</v>
+        <v>0.07246376798466708</v>
       </c>
       <c r="F52" t="n">
         <v>930.9990690009311</v>
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C53" t="n">
         <v>41</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3109243671350894</v>
+        <v>0.2038834931661797</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1072072071106241</v>
+        <v>0.09279279270919567</v>
       </c>
       <c r="F53" t="n">
         <v>2102.997897002103</v>
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C54" t="n">
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784615372544379</v>
+        <v>0.7307692167159766</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1242829825539522</v>
+        <v>0.09942638604316179</v>
       </c>
       <c r="F54" t="n">
         <v>859.9991400008601</v>
@@ -2945,16 +2945,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4999999750000012</v>
+        <v>0.3333333111111126</v>
       </c>
       <c r="E55" t="n">
-        <v>0.05376344071568968</v>
+        <v>0.04032258053676726</v>
       </c>
       <c r="F55" t="n">
         <v>578.999421000579</v>
@@ -2991,16 +2991,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C56" t="n">
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4666666562962966</v>
+        <v>0.3999999900000002</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07425742562003725</v>
+        <v>0.06600660055114423</v>
       </c>
       <c r="F56" t="n">
         <v>1014.998985001015</v>
@@ -3037,16 +3037,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C57" t="n">
         <v>12</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2499999921875003</v>
+        <v>0.1999999933333335</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07407407390260631</v>
+        <v>0.06944444428369341</v>
       </c>
       <c r="F57" t="n">
         <v>680.9993190006811</v>
@@ -3083,16 +3083,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C58" t="n">
         <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>0.333333324786325</v>
+        <v>0.2121212056932968</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1157270026239555</v>
+        <v>0.09792284837411618</v>
       </c>
       <c r="F58" t="n">
         <v>591.9994080005921</v>
@@ -3129,16 +3129,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4999999687500019</v>
+        <v>0.4285713979591859</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06666666638888889</v>
+        <v>0.05833333309027778</v>
       </c>
       <c r="F59" t="n">
         <v>362.999637000363</v>
@@ -3175,16 +3175,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C60" t="n">
         <v>41</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1081081066471878</v>
+        <v>-0.1884057943709305</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1305114636146182</v>
+        <v>0.1216931214784954</v>
       </c>
       <c r="F60" t="n">
         <v>1010.998989001011</v>
@@ -3221,16 +3221,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4782608487712674</v>
+        <v>0.399999980000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09274193510991155</v>
+        <v>0.08064516096514047</v>
       </c>
       <c r="F61" t="n">
         <v>385.999614000386</v>
@@ -3267,16 +3267,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C62" t="n">
         <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5081967129803818</v>
+        <v>0.4339622559629763</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1105072461766173</v>
+        <v>0.09601449257968389</v>
       </c>
       <c r="F62" t="n">
         <v>879.9991200008801</v>
@@ -3313,16 +3313,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1578947285318564</v>
+        <v>-0.2941176297577865</v>
       </c>
       <c r="E63" t="n">
-        <v>0.08407079608818233</v>
+        <v>0.07522123860521576</v>
       </c>
       <c r="F63" t="n">
         <v>358.999641000359</v>
@@ -3359,16 +3359,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" t="n">
         <v>29</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3181818109504134</v>
+        <v>-0.3488372011898325</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1333333329292929</v>
+        <v>0.1303030299081726</v>
       </c>
       <c r="F64" t="n">
         <v>589.99941000059</v>
@@ -3405,16 +3405,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
         <v>53</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.1648351630237894</v>
+        <v>-0.277108430396284</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08074534154326056</v>
+        <v>0.07364684997901787</v>
       </c>
       <c r="F65" t="n">
         <v>1922.998077001923</v>
@@ -3451,16 +3451,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C66" t="n">
         <v>27</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3999999955555556</v>
+        <v>0.2702702666179694</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08645533132905346</v>
+        <v>0.07108549464833284</v>
       </c>
       <c r="F66" t="n">
         <v>1948.998051001949</v>
@@ -3497,16 +3497,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C67" t="n">
         <v>29</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3012048156481348</v>
+        <v>0.1470588213667821</v>
       </c>
       <c r="E67" t="n">
-        <v>0.08609958497292575</v>
+        <v>0.07053941901396325</v>
       </c>
       <c r="F67" t="n">
         <v>1654.998345001655</v>
@@ -3543,16 +3543,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C68" t="n">
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4883720816657656</v>
+        <v>0.4499999887500003</v>
       </c>
       <c r="E68" t="n">
-        <v>0.08097928421661152</v>
+        <v>0.07532956671312699</v>
       </c>
       <c r="F68" t="n">
         <v>1067.998932001068</v>
@@ -3589,16 +3589,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C69" t="n">
         <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6521739035916826</v>
+        <v>0.5789473582640815</v>
       </c>
       <c r="E69" t="n">
-        <v>0.08383961107674409</v>
+        <v>0.06925880915035382</v>
       </c>
       <c r="F69" t="n">
         <v>1617.998382001618</v>
@@ -3635,16 +3635,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C70" t="n">
         <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6296296179698219</v>
+        <v>0.5652173790170135</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1417322830925662</v>
+        <v>0.1207349078195934</v>
       </c>
       <c r="F70" t="n">
         <v>674.9993250006751</v>
@@ -3681,16 +3681,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C71" t="n">
         <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4594594532505479</v>
+        <v>0.384615378698225</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06896551717710575</v>
+        <v>0.06057781914205235</v>
       </c>
       <c r="F71" t="n">
         <v>1790.998209001791</v>
@@ -3727,16 +3727,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C72" t="n">
         <v>78</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.3109243671350894</v>
+        <v>-0.4579439209537952</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1808510635549376</v>
+        <v>0.1626139815157842</v>
       </c>
       <c r="F72" t="n">
         <v>1191.998808001192</v>
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C73" t="n">
         <v>27</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4953270981745131</v>
+        <v>0.4374999954427084</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1420982733836676</v>
+        <v>0.127490039671328</v>
       </c>
       <c r="F73" t="n">
         <v>1384.998615001385</v>
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C74" t="n">
         <v>38</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1343283562040544</v>
+        <v>-0.169230766627219</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09128065382659312</v>
+        <v>0.0885558581899784</v>
       </c>
       <c r="F74" t="n">
         <v>1222.998777001223</v>
@@ -3865,16 +3865,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C75" t="n">
         <v>27</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1428571405895692</v>
+        <v>0.01818181785123968</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08181818171192444</v>
+        <v>0.07142857133580705</v>
       </c>
       <c r="F75" t="n">
         <v>1283.998716001284</v>
@@ -3911,16 +3911,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C76" t="n">
         <v>82</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.3333333306233063</v>
+        <v>-0.4909090864462811</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1827637441563689</v>
+        <v>0.1634472508715494</v>
       </c>
       <c r="F76" t="n">
         <v>1215.998784001216</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C77" t="n">
         <v>16</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3333333263888891</v>
+        <v>0.2195121897679954</v>
       </c>
       <c r="E77" t="n">
-        <v>0.09430255384223467</v>
+        <v>0.08055009807357545</v>
       </c>
       <c r="F77" t="n">
         <v>879.9991200008801</v>
@@ -4003,16 +4003,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C78" t="n">
         <v>10</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1999999920000003</v>
+        <v>0.1304347769376184</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08143322449044553</v>
+        <v>0.07491856653120989</v>
       </c>
       <c r="F78" t="n">
         <v>501.9994980005021</v>
@@ -4049,16 +4049,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C79" t="n">
         <v>22</v>
       </c>
       <c r="D79" t="n">
-        <v>0.18518518175583</v>
+        <v>0.1372548992695118</v>
       </c>
       <c r="E79" t="n">
-        <v>0.09262435661642478</v>
+        <v>0.0874785590266234</v>
       </c>
       <c r="F79" t="n">
         <v>944.9990550009451</v>
@@ -4095,16 +4095,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C80" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02857142816326531</v>
+        <v>-0.166666663888889</v>
       </c>
       <c r="E80" t="n">
-        <v>0.08343265782665953</v>
+        <v>0.07151370670856531</v>
       </c>
       <c r="F80" t="n">
         <v>1415.998584001416</v>
@@ -4141,16 +4141,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C81" t="n">
         <v>14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5172413703923902</v>
+        <v>0.4909090819834713</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02474402729319794</v>
+        <v>0.02346416381251529</v>
       </c>
       <c r="F81" t="n">
         <v>3499.9965000035</v>
@@ -4187,16 +4187,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C82" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1176470576701269</v>
+        <v>-0.1397849447334952</v>
       </c>
       <c r="E82" t="n">
-        <v>0.09488372084196862</v>
+        <v>0.08651162782650081</v>
       </c>
       <c r="F82" t="n">
         <v>1944.998055001945</v>
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C83" t="n">
         <v>66</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.3069306900303892</v>
+        <v>-0.33333332996633</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09555345307894658</v>
+        <v>0.09366130549322486</v>
       </c>
       <c r="F83" t="n">
         <v>1675.998324001676</v>
@@ -4279,16 +4279,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3749999765625014</v>
+        <v>0.2307692130177529</v>
       </c>
       <c r="E84" t="n">
-        <v>0.07142857110969388</v>
+        <v>0.05803571402662628</v>
       </c>
       <c r="F84" t="n">
         <v>349.99965000035</v>
@@ -4325,16 +4325,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C85" t="n">
         <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7037036906721539</v>
+        <v>0.6190476043083905</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0861244017765161</v>
+        <v>0.06698564582617919</v>
       </c>
       <c r="F85" t="n">
         <v>1045.998954001046</v>
@@ -4371,16 +4371,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C86" t="n">
         <v>38</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1648351630237894</v>
+        <v>0.02564102531229455</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08576814318023737</v>
+        <v>0.07351555129734631</v>
       </c>
       <c r="F86" t="n">
         <v>2025.997974002026</v>
@@ -4417,16 +4417,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C87" t="n">
         <v>19</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5476190410997733</v>
+        <v>0.5064934999156688</v>
       </c>
       <c r="E87" t="n">
-        <v>0.07685269892328206</v>
+        <v>0.07044830734634189</v>
       </c>
       <c r="F87" t="n">
         <v>1872.998127001873</v>
@@ -4463,16 +4463,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C88" t="n">
         <v>38</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07317073081499109</v>
+        <v>-0.04109588984800151</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1081794193823491</v>
+        <v>0.09630606847453026</v>
       </c>
       <c r="F88" t="n">
         <v>1265.998734001266</v>
@@ -4509,16 +4509,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
         <v>48</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.3521126710970047</v>
+        <v>-0.4117646998269897</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06089193819820588</v>
+        <v>0.05831903940109859</v>
       </c>
       <c r="F89" t="n">
         <v>1912.998087001913</v>
@@ -4555,16 +4555,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C90" t="n">
         <v>46</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.2957746437214839</v>
+        <v>-0.37313432278904</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1027496380568023</v>
+        <v>0.09696092605360214</v>
       </c>
       <c r="F90" t="n">
         <v>1155.998844001156</v>
@@ -4601,16 +4601,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C91" t="n">
         <v>52</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02970297000294089</v>
+        <v>-0.1182795686206498</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1303225804770031</v>
+        <v>0.1199999998451613</v>
       </c>
       <c r="F91" t="n">
         <v>1415.998584001416</v>
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C92" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07246376706574251</v>
+        <v>-0.03333333277777779</v>
       </c>
       <c r="E92" t="n">
-        <v>0.09212283031759302</v>
+        <v>0.08010680897182001</v>
       </c>
       <c r="F92" t="n">
         <v>1304.998695001305</v>
@@ -4693,16 +4693,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C93" t="n">
         <v>44</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.1891891866325786</v>
+        <v>-0.2753623148498215</v>
       </c>
       <c r="E93" t="n">
-        <v>0.08213096550262934</v>
+        <v>0.07658157594164088</v>
       </c>
       <c r="F93" t="n">
         <v>1384.998615001385</v>
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C94" t="n">
         <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2631578808864273</v>
+        <v>0.1249999921875005</v>
       </c>
       <c r="E94" t="n">
-        <v>0.07661290291688345</v>
+        <v>0.06451612877211238</v>
       </c>
       <c r="F94" t="n">
         <v>392.999607000393</v>
@@ -4785,16 +4785,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C95" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1489361686283386</v>
+        <v>-0.1777777758024692</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1202046034268483</v>
+        <v>0.1150895139193229</v>
       </c>
       <c r="F95" t="n">
         <v>1350.998649001351</v>
@@ -4831,16 +4831,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C96" t="n">
         <v>29</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.2083333289930556</v>
+        <v>-0.3809523718820864</v>
       </c>
       <c r="E96" t="n">
-        <v>0.09213051805733107</v>
+        <v>0.08061420330016468</v>
       </c>
       <c r="F96" t="n">
         <v>827.999172000828</v>
@@ -4877,16 +4877,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C97" t="n">
         <v>61</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.2577319561058561</v>
+        <v>-0.3118279536362586</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1215538845594563</v>
+        <v>0.1165413532374169</v>
       </c>
       <c r="F97" t="n">
         <v>1325.998674001326</v>
@@ -4923,16 +4923,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
         <v>39</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.01298701281835048</v>
+        <v>-0.199999996923077</v>
       </c>
       <c r="E98" t="n">
-        <v>0.113905325275288</v>
+        <v>0.09615384601160673</v>
       </c>
       <c r="F98" t="n">
         <v>1284.998715001285</v>
@@ -4969,16 +4969,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3333333055555579</v>
+        <v>0.199999980000002</v>
       </c>
       <c r="E99" t="n">
-        <v>0.04858299575472472</v>
+        <v>0.04048582979560393</v>
       </c>
       <c r="F99" t="n">
         <v>353.999646000354</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C100" t="n">
         <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6216216048210378</v>
+        <v>0.4399999824000007</v>
       </c>
       <c r="E100" t="n">
-        <v>0.08061002161087141</v>
+        <v>0.05446623081815636</v>
       </c>
       <c r="F100" t="n">
         <v>745.9992540007461</v>
@@ -5061,16 +5061,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C101" t="n">
         <v>58</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1717171699826548</v>
+        <v>-0.2608695623818526</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1504559268230153</v>
+        <v>0.1398176289668425</v>
       </c>
       <c r="F101" t="n">
         <v>1129.99887000113</v>
